--- a/outputs/results_ep19_national.xlsx
+++ b/outputs/results_ep19_national.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="926">
   <si>
     <t xml:space="preserve">DIVISION_ID</t>
   </si>
@@ -750,9 +750,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fianna Fáil Party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTIMATE</t>
   </si>
   <si>
     <t xml:space="preserve">IE02</t>
@@ -5518,10 +5515,10 @@
         <v>16.55</v>
       </c>
       <c r="F104" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G104" s="1" t="n">
-        <v>43613.6097222222</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="105">
@@ -5529,22 +5526,22 @@
         <v>242</v>
       </c>
       <c r="B105" t="s">
+        <v>246</v>
+      </c>
+      <c r="C105" t="s">
         <v>247</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>248</v>
-      </c>
-      <c r="D105" t="s">
-        <v>249</v>
       </c>
       <c r="E105" t="n">
         <v>29.59</v>
       </c>
       <c r="F105" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G105" s="1" t="n">
-        <v>43613.6097222222</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="106">
@@ -5552,22 +5549,22 @@
         <v>242</v>
       </c>
       <c r="B106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" t="s">
         <v>250</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>251</v>
-      </c>
-      <c r="D106" t="s">
-        <v>252</v>
       </c>
       <c r="E106" t="n">
         <v>3.14</v>
       </c>
       <c r="F106" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G106" s="1" t="n">
-        <v>43613.6097222222</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="107">
@@ -5575,22 +5572,22 @@
         <v>242</v>
       </c>
       <c r="B107" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" t="s">
         <v>253</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>254</v>
-      </c>
-      <c r="D107" t="s">
-        <v>255</v>
       </c>
       <c r="E107" t="n">
         <v>11.37</v>
       </c>
       <c r="F107" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>43613.6097222222</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="108">
@@ -5598,22 +5595,22 @@
         <v>242</v>
       </c>
       <c r="B108" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" t="s">
         <v>256</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>257</v>
-      </c>
-      <c r="D108" t="s">
-        <v>258</v>
       </c>
       <c r="E108" t="n">
         <v>11.68</v>
       </c>
       <c r="F108" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>43613.6097222222</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="109">
@@ -5621,22 +5618,22 @@
         <v>242</v>
       </c>
       <c r="B109" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" t="s">
         <v>259</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>260</v>
-      </c>
-      <c r="D109" t="s">
-        <v>261</v>
       </c>
       <c r="E109" t="n">
         <v>23.92</v>
       </c>
       <c r="F109" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G109" s="1" t="n">
-        <v>43613.6097222222</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="110">
@@ -5644,22 +5641,22 @@
         <v>242</v>
       </c>
       <c r="B110" t="s">
+        <v>261</v>
+      </c>
+      <c r="C110" t="s">
         <v>262</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>263</v>
-      </c>
-      <c r="D110" t="s">
-        <v>264</v>
       </c>
       <c r="E110" t="n">
         <v>1.21</v>
       </c>
       <c r="F110" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G110" s="1" t="n">
-        <v>43613.6097222222</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="111">
@@ -5667,7 +5664,7 @@
         <v>242</v>
       </c>
       <c r="B111" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C111" t="s">
         <v>107</v>
@@ -5679,24 +5676,24 @@
         <v>2.54</v>
       </c>
       <c r="F111" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G111" s="1" t="n">
-        <v>43613.6097222222</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>265</v>
+      </c>
+      <c r="B112" t="s">
         <v>266</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>267</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>268</v>
-      </c>
-      <c r="D112" t="s">
-        <v>269</v>
       </c>
       <c r="E112" t="n">
         <v>33.12</v>
@@ -5710,16 +5707,16 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B113" t="s">
+        <v>269</v>
+      </c>
+      <c r="C113" t="s">
         <v>270</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>271</v>
-      </c>
-      <c r="D113" t="s">
-        <v>272</v>
       </c>
       <c r="E113" t="n">
         <v>7.72</v>
@@ -5733,16 +5730,16 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B114" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" t="s">
         <v>273</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>274</v>
-      </c>
-      <c r="D114" t="s">
-        <v>275</v>
       </c>
       <c r="E114" t="n">
         <v>5.35</v>
@@ -5756,16 +5753,16 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B115" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115" t="s">
         <v>276</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>277</v>
-      </c>
-      <c r="D115" t="s">
-        <v>278</v>
       </c>
       <c r="E115" t="n">
         <v>23.76</v>
@@ -5779,16 +5776,16 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B116" t="s">
+        <v>278</v>
+      </c>
+      <c r="C116" t="s">
         <v>279</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>280</v>
-      </c>
-      <c r="D116" t="s">
-        <v>281</v>
       </c>
       <c r="E116" t="n">
         <v>4.88</v>
@@ -5802,16 +5799,16 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B117" t="s">
+        <v>281</v>
+      </c>
+      <c r="C117" t="s">
         <v>282</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>283</v>
-      </c>
-      <c r="D117" t="s">
-        <v>284</v>
       </c>
       <c r="E117" t="n">
         <v>0.8</v>
@@ -5825,16 +5822,16 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B118" t="s">
+        <v>284</v>
+      </c>
+      <c r="C118" t="s">
         <v>285</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>286</v>
-      </c>
-      <c r="D118" t="s">
-        <v>287</v>
       </c>
       <c r="E118" t="n">
         <v>1.45</v>
@@ -5848,16 +5845,16 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B119" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" t="s">
         <v>288</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>289</v>
-      </c>
-      <c r="D119" t="s">
-        <v>290</v>
       </c>
       <c r="E119" t="n">
         <v>0.56</v>
@@ -5871,16 +5868,16 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B120" t="s">
+        <v>290</v>
+      </c>
+      <c r="C120" t="s">
         <v>291</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>292</v>
-      </c>
-      <c r="D120" t="s">
-        <v>293</v>
       </c>
       <c r="E120" t="n">
         <v>4.18</v>
@@ -5894,16 +5891,16 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B121" t="s">
+        <v>293</v>
+      </c>
+      <c r="C121" t="s">
         <v>294</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>295</v>
-      </c>
-      <c r="D121" t="s">
-        <v>296</v>
       </c>
       <c r="E121" t="n">
         <v>1.52</v>
@@ -5917,16 +5914,16 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B122" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" t="s">
         <v>297</v>
       </c>
-      <c r="C122" t="s">
-        <v>298</v>
-      </c>
       <c r="D122" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E122" t="n">
         <v>1.61</v>
@@ -5940,16 +5937,16 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B123" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123" t="s">
         <v>299</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>300</v>
-      </c>
-      <c r="D123" t="s">
-        <v>301</v>
       </c>
       <c r="E123" t="n">
         <v>0.64</v>
@@ -5963,16 +5960,16 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B124" t="s">
+        <v>301</v>
+      </c>
+      <c r="C124" t="s">
         <v>302</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>303</v>
-      </c>
-      <c r="D124" t="s">
-        <v>304</v>
       </c>
       <c r="E124" t="n">
         <v>2.99</v>
@@ -5986,16 +5983,16 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B125" t="s">
+        <v>304</v>
+      </c>
+      <c r="C125" t="s">
         <v>305</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>306</v>
-      </c>
-      <c r="D125" t="s">
-        <v>307</v>
       </c>
       <c r="E125" t="n">
         <v>0.87</v>
@@ -6009,10 +6006,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B126" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C126" t="s">
         <v>107</v>
@@ -6032,16 +6029,16 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>308</v>
+      </c>
+      <c r="B127" t="s">
         <v>309</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>310</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>311</v>
-      </c>
-      <c r="D127" t="s">
-        <v>312</v>
       </c>
       <c r="E127" t="n">
         <v>32.84</v>
@@ -6055,16 +6052,16 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B128" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C128" t="s">
         <v>48</v>
       </c>
       <c r="D128" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E128" t="n">
         <v>20.13</v>
@@ -6078,16 +6075,16 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B129" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" t="s">
         <v>315</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>316</v>
-      </c>
-      <c r="D129" t="s">
-        <v>317</v>
       </c>
       <c r="E129" t="n">
         <v>10.05</v>
@@ -6101,16 +6098,16 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B130" t="s">
+        <v>317</v>
+      </c>
+      <c r="C130" t="s">
         <v>318</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>319</v>
-      </c>
-      <c r="D130" t="s">
-        <v>320</v>
       </c>
       <c r="E130" t="n">
         <v>2.83</v>
@@ -6124,16 +6121,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B131" t="s">
+        <v>320</v>
+      </c>
+      <c r="C131" t="s">
         <v>321</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>322</v>
-      </c>
-      <c r="D131" t="s">
-        <v>323</v>
       </c>
       <c r="E131" t="n">
         <v>12.17</v>
@@ -6147,16 +6144,16 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B132" t="s">
+        <v>323</v>
+      </c>
+      <c r="C132" t="s">
         <v>324</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>325</v>
-      </c>
-      <c r="D132" t="s">
-        <v>326</v>
       </c>
       <c r="E132" t="n">
         <v>4.58</v>
@@ -6170,16 +6167,16 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B133" t="s">
+        <v>326</v>
+      </c>
+      <c r="C133" t="s">
         <v>327</v>
       </c>
-      <c r="C133" t="s">
-        <v>328</v>
-      </c>
       <c r="D133" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E133" t="n">
         <v>6.2</v>
@@ -6193,16 +6190,16 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B134" t="s">
+        <v>328</v>
+      </c>
+      <c r="C134" t="s">
         <v>329</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>330</v>
-      </c>
-      <c r="D134" t="s">
-        <v>331</v>
       </c>
       <c r="E134" t="n">
         <v>5.61</v>
@@ -6216,16 +6213,16 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B135" t="s">
+        <v>331</v>
+      </c>
+      <c r="C135" t="s">
         <v>332</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>333</v>
-      </c>
-      <c r="D135" t="s">
-        <v>334</v>
       </c>
       <c r="E135" t="n">
         <v>1.32</v>
@@ -6239,16 +6236,16 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B136" t="s">
+        <v>334</v>
+      </c>
+      <c r="C136" t="s">
         <v>335</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>336</v>
-      </c>
-      <c r="D136" t="s">
-        <v>337</v>
       </c>
       <c r="E136" t="n">
         <v>1.31</v>
@@ -6262,10 +6259,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B137" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C137" t="s">
         <v>107</v>
@@ -6285,16 +6282,16 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>338</v>
+      </c>
+      <c r="B138" t="s">
         <v>339</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>340</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>341</v>
-      </c>
-      <c r="D138" t="s">
-        <v>342</v>
       </c>
       <c r="E138" t="n">
         <v>6.31</v>
@@ -6308,16 +6305,16 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B139" t="s">
+        <v>342</v>
+      </c>
+      <c r="C139" t="s">
         <v>343</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>344</v>
-      </c>
-      <c r="D139" t="s">
-        <v>345</v>
       </c>
       <c r="E139" t="n">
         <v>6.19</v>
@@ -6331,16 +6328,16 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B140" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" t="s">
         <v>346</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>347</v>
-      </c>
-      <c r="D140" t="s">
-        <v>348</v>
       </c>
       <c r="E140" t="n">
         <v>13.47</v>
@@ -6354,16 +6351,16 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B141" t="s">
+        <v>348</v>
+      </c>
+      <c r="C141" t="s">
         <v>349</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>350</v>
-      </c>
-      <c r="D141" t="s">
-        <v>351</v>
       </c>
       <c r="E141" t="n">
         <v>8.48</v>
@@ -6377,16 +6374,16 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B142" t="s">
+        <v>351</v>
+      </c>
+      <c r="C142" t="s">
         <v>352</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>353</v>
-      </c>
-      <c r="D142" t="s">
-        <v>354</v>
       </c>
       <c r="E142" t="n">
         <v>23.31</v>
@@ -6400,16 +6397,16 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B143" t="s">
+        <v>354</v>
+      </c>
+      <c r="C143" t="s">
         <v>355</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>356</v>
-      </c>
-      <c r="D143" t="s">
-        <v>357</v>
       </c>
       <c r="E143" t="n">
         <v>3.51</v>
@@ -6423,16 +6420,16 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B144" t="s">
+        <v>357</v>
+      </c>
+      <c r="C144" t="s">
         <v>358</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>359</v>
-      </c>
-      <c r="D144" t="s">
-        <v>360</v>
       </c>
       <c r="E144" t="n">
         <v>22.41</v>
@@ -6446,16 +6443,16 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B145" t="s">
+        <v>360</v>
+      </c>
+      <c r="C145" t="s">
         <v>361</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>362</v>
-      </c>
-      <c r="D145" t="s">
-        <v>363</v>
       </c>
       <c r="E145" t="n">
         <v>2.49</v>
@@ -6469,16 +6466,16 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B146" t="s">
+        <v>363</v>
+      </c>
+      <c r="C146" t="s">
         <v>364</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>365</v>
-      </c>
-      <c r="D146" t="s">
-        <v>366</v>
       </c>
       <c r="E146" t="n">
         <v>2.5</v>
@@ -6492,16 +6489,16 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B147" t="s">
+        <v>366</v>
+      </c>
+      <c r="C147" t="s">
         <v>367</v>
       </c>
-      <c r="C147" t="s">
-        <v>368</v>
-      </c>
       <c r="D147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E147" t="n">
         <v>3.27</v>
@@ -6515,10 +6512,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B148" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C148" t="s">
         <v>107</v>
@@ -6538,16 +6535,16 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>369</v>
+      </c>
+      <c r="B149" t="s">
         <v>370</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>371</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>372</v>
-      </c>
-      <c r="D149" t="s">
-        <v>373</v>
       </c>
       <c r="E149" t="n">
         <v>22.72</v>
@@ -6561,16 +6558,16 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B150" t="s">
+        <v>373</v>
+      </c>
+      <c r="C150" t="s">
         <v>374</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>375</v>
-      </c>
-      <c r="D150" t="s">
-        <v>376</v>
       </c>
       <c r="E150" t="n">
         <v>18.71</v>
@@ -6584,16 +6581,16 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B151" t="s">
+        <v>376</v>
+      </c>
+      <c r="C151" t="s">
         <v>377</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>378</v>
-      </c>
-      <c r="D151" t="s">
-        <v>379</v>
       </c>
       <c r="E151" t="n">
         <v>2.6</v>
@@ -6607,16 +6604,16 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B152" t="s">
+        <v>379</v>
+      </c>
+      <c r="C152" t="s">
         <v>380</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>381</v>
-      </c>
-      <c r="D152" t="s">
-        <v>382</v>
       </c>
       <c r="E152" t="n">
         <v>4.67</v>
@@ -6630,16 +6627,16 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B153" t="s">
+        <v>382</v>
+      </c>
+      <c r="C153" t="s">
         <v>383</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>384</v>
-      </c>
-      <c r="D153" t="s">
-        <v>385</v>
       </c>
       <c r="E153" t="n">
         <v>1.4</v>
@@ -6653,16 +6650,16 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B154" t="s">
+        <v>385</v>
+      </c>
+      <c r="C154" t="s">
         <v>386</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>387</v>
-      </c>
-      <c r="D154" t="s">
-        <v>388</v>
       </c>
       <c r="E154" t="n">
         <v>5.66</v>
@@ -6676,16 +6673,16 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B155" t="s">
+        <v>388</v>
+      </c>
+      <c r="C155" t="s">
         <v>389</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>390</v>
-      </c>
-      <c r="D155" t="s">
-        <v>391</v>
       </c>
       <c r="E155" t="n">
         <v>1.97</v>
@@ -6699,16 +6696,16 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B156" t="s">
+        <v>391</v>
+      </c>
+      <c r="C156" t="s">
         <v>392</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>393</v>
-      </c>
-      <c r="D156" t="s">
-        <v>394</v>
       </c>
       <c r="E156" t="n">
         <v>4.37</v>
@@ -6722,16 +6719,16 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B157" t="s">
+        <v>394</v>
+      </c>
+      <c r="C157" t="s">
         <v>395</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>396</v>
-      </c>
-      <c r="D157" t="s">
-        <v>397</v>
       </c>
       <c r="E157" t="n">
         <v>2.02</v>
@@ -6745,16 +6742,16 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B158" t="s">
+        <v>397</v>
+      </c>
+      <c r="C158" t="s">
         <v>398</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>399</v>
-      </c>
-      <c r="D158" t="s">
-        <v>400</v>
       </c>
       <c r="E158" t="n">
         <v>8.52</v>
@@ -6768,16 +6765,16 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B159" t="s">
+        <v>400</v>
+      </c>
+      <c r="C159" t="s">
         <v>401</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>402</v>
-      </c>
-      <c r="D159" t="s">
-        <v>403</v>
       </c>
       <c r="E159" t="n">
         <v>5.19</v>
@@ -6791,16 +6788,16 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B160" t="s">
+        <v>403</v>
+      </c>
+      <c r="C160" t="s">
         <v>404</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>405</v>
-      </c>
-      <c r="D160" t="s">
-        <v>406</v>
       </c>
       <c r="E160" t="n">
         <v>1.79</v>
@@ -6814,16 +6811,16 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B161" t="s">
+        <v>406</v>
+      </c>
+      <c r="C161" t="s">
         <v>407</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>408</v>
-      </c>
-      <c r="D161" t="s">
-        <v>409</v>
       </c>
       <c r="E161" t="n">
         <v>7.89</v>
@@ -6837,16 +6834,16 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B162" t="s">
+        <v>409</v>
+      </c>
+      <c r="C162" t="s">
         <v>410</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>411</v>
-      </c>
-      <c r="D162" t="s">
-        <v>412</v>
       </c>
       <c r="E162" t="n">
         <v>4.4</v>
@@ -6860,10 +6857,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B163" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C163" t="s">
         <v>107</v>
@@ -6883,16 +6880,16 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
+        <v>413</v>
+      </c>
+      <c r="B164" t="s">
         <v>414</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>415</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>416</v>
-      </c>
-      <c r="D164" t="s">
-        <v>417</v>
       </c>
       <c r="E164" t="n">
         <v>34.33</v>
@@ -6906,16 +6903,16 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B165" t="s">
+        <v>417</v>
+      </c>
+      <c r="C165" t="s">
         <v>418</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>419</v>
-      </c>
-      <c r="D165" t="s">
-        <v>420</v>
       </c>
       <c r="E165" t="n">
         <v>22.69</v>
@@ -6929,16 +6926,16 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B166" t="s">
+        <v>420</v>
+      </c>
+      <c r="C166" t="s">
+        <v>340</v>
+      </c>
+      <c r="D166" t="s">
         <v>421</v>
-      </c>
-      <c r="C166" t="s">
-        <v>341</v>
-      </c>
-      <c r="D166" t="s">
-        <v>422</v>
       </c>
       <c r="E166" t="n">
         <v>8.79</v>
@@ -6952,16 +6949,16 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B167" t="s">
+        <v>422</v>
+      </c>
+      <c r="C167" t="s">
         <v>423</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>424</v>
-      </c>
-      <c r="D167" t="s">
-        <v>425</v>
       </c>
       <c r="E167" t="n">
         <v>6.46</v>
@@ -6975,16 +6972,16 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B168" t="s">
+        <v>425</v>
+      </c>
+      <c r="C168" t="s">
         <v>426</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>427</v>
-      </c>
-      <c r="D168" t="s">
-        <v>428</v>
       </c>
       <c r="E168" t="n">
         <v>17.07</v>
@@ -6998,16 +6995,16 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B169" t="s">
+        <v>428</v>
+      </c>
+      <c r="C169" t="s">
         <v>429</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>430</v>
-      </c>
-      <c r="D169" t="s">
-        <v>431</v>
       </c>
       <c r="E169" t="n">
         <v>3.09</v>
@@ -7021,16 +7018,16 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B170" t="s">
+        <v>431</v>
+      </c>
+      <c r="C170" t="s">
         <v>432</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>433</v>
-      </c>
-      <c r="D170" t="s">
-        <v>434</v>
       </c>
       <c r="E170" t="n">
         <v>1.74</v>
@@ -7044,16 +7041,16 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B171" t="s">
+        <v>434</v>
+      </c>
+      <c r="C171" t="s">
         <v>435</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>436</v>
-      </c>
-      <c r="D171" t="s">
-        <v>437</v>
       </c>
       <c r="E171" t="n">
         <v>0.53</v>
@@ -7067,16 +7064,16 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B172" t="s">
+        <v>437</v>
+      </c>
+      <c r="C172" t="s">
         <v>438</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>439</v>
-      </c>
-      <c r="D172" t="s">
-        <v>440</v>
       </c>
       <c r="E172" t="n">
         <v>2.29</v>
@@ -7090,10 +7087,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B173" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C173" t="s">
         <v>107</v>
@@ -7113,16 +7110,16 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>441</v>
+      </c>
+      <c r="B174" t="s">
         <v>442</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>443</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>444</v>
-      </c>
-      <c r="D174" t="s">
-        <v>445</v>
       </c>
       <c r="E174" t="n">
         <v>29.02</v>
@@ -7136,16 +7133,16 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B175" t="s">
+        <v>445</v>
+      </c>
+      <c r="C175" t="s">
         <v>446</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>447</v>
-      </c>
-      <c r="D175" t="s">
-        <v>448</v>
       </c>
       <c r="E175" t="n">
         <v>27.49</v>
@@ -7159,16 +7156,16 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B176" t="s">
+        <v>448</v>
+      </c>
+      <c r="C176" t="s">
         <v>449</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>450</v>
-      </c>
-      <c r="D176" t="s">
-        <v>451</v>
       </c>
       <c r="E176" t="n">
         <v>13.8</v>
@@ -7182,16 +7179,16 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B177" t="s">
+        <v>451</v>
+      </c>
+      <c r="C177" t="s">
         <v>452</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>453</v>
-      </c>
-      <c r="D177" t="s">
-        <v>454</v>
       </c>
       <c r="E177" t="n">
         <v>10.58</v>
@@ -7205,16 +7202,16 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B178" t="s">
+        <v>454</v>
+      </c>
+      <c r="C178" t="s">
         <v>455</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>456</v>
-      </c>
-      <c r="D178" t="s">
-        <v>457</v>
       </c>
       <c r="E178" t="n">
         <v>8.25</v>
@@ -7228,16 +7225,16 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B179" t="s">
+        <v>457</v>
+      </c>
+      <c r="C179" t="s">
         <v>458</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>459</v>
-      </c>
-      <c r="D179" t="s">
-        <v>460</v>
       </c>
       <c r="E179" t="n">
         <v>3.29</v>
@@ -7251,16 +7248,16 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B180" t="s">
+        <v>460</v>
+      </c>
+      <c r="C180" t="s">
         <v>461</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>462</v>
-      </c>
-      <c r="D180" t="s">
-        <v>463</v>
       </c>
       <c r="E180" t="n">
         <v>3.8</v>
@@ -7274,10 +7271,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B181" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C181" t="s">
         <v>107</v>
@@ -7297,16 +7294,16 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>464</v>
+      </c>
+      <c r="B182" t="s">
         <v>465</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>466</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>467</v>
-      </c>
-      <c r="D182" t="s">
-        <v>468</v>
       </c>
       <c r="E182" t="n">
         <v>26.24</v>
@@ -7320,16 +7317,16 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B183" t="s">
+        <v>468</v>
+      </c>
+      <c r="C183" t="s">
         <v>469</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>470</v>
-      </c>
-      <c r="D183" t="s">
-        <v>471</v>
       </c>
       <c r="E183" t="n">
         <v>16.4</v>
@@ -7343,16 +7340,16 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B184" t="s">
+        <v>471</v>
+      </c>
+      <c r="C184" t="s">
         <v>472</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>473</v>
-      </c>
-      <c r="D184" t="s">
-        <v>474</v>
       </c>
       <c r="E184" t="n">
         <v>17.45</v>
@@ -7366,16 +7363,16 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B185" t="s">
+        <v>474</v>
+      </c>
+      <c r="C185" t="s">
         <v>475</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>476</v>
-      </c>
-      <c r="D185" t="s">
-        <v>477</v>
       </c>
       <c r="E185" t="n">
         <v>5.34</v>
@@ -7389,16 +7386,16 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B186" t="s">
+        <v>477</v>
+      </c>
+      <c r="C186" t="s">
         <v>478</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>479</v>
-      </c>
-      <c r="D186" t="s">
-        <v>480</v>
       </c>
       <c r="E186" t="n">
         <v>4.98</v>
@@ -7412,16 +7409,16 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B187" t="s">
+        <v>480</v>
+      </c>
+      <c r="C187" t="s">
         <v>481</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>482</v>
-      </c>
-      <c r="D187" t="s">
-        <v>483</v>
       </c>
       <c r="E187" t="n">
         <v>0.92</v>
@@ -7435,16 +7432,16 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B188" t="s">
+        <v>483</v>
+      </c>
+      <c r="C188" t="s">
         <v>484</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>485</v>
-      </c>
-      <c r="D188" t="s">
-        <v>486</v>
       </c>
       <c r="E188" t="n">
         <v>4.35</v>
@@ -7458,16 +7455,16 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B189" t="s">
+        <v>486</v>
+      </c>
+      <c r="C189" t="s">
         <v>487</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>488</v>
-      </c>
-      <c r="D189" t="s">
-        <v>489</v>
       </c>
       <c r="E189" t="n">
         <v>12.42</v>
@@ -7481,16 +7478,16 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B190" t="s">
+        <v>489</v>
+      </c>
+      <c r="C190" t="s">
         <v>490</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>491</v>
-      </c>
-      <c r="D190" t="s">
-        <v>492</v>
       </c>
       <c r="E190" t="n">
         <v>6.24</v>
@@ -7504,16 +7501,16 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B191" t="s">
+        <v>492</v>
+      </c>
+      <c r="C191" t="s">
         <v>493</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>494</v>
-      </c>
-      <c r="D191" t="s">
-        <v>495</v>
       </c>
       <c r="E191" t="n">
         <v>0.17</v>
@@ -7527,16 +7524,16 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B192" t="s">
+        <v>495</v>
+      </c>
+      <c r="C192" t="s">
         <v>496</v>
       </c>
-      <c r="C192" t="s">
-        <v>497</v>
-      </c>
       <c r="D192" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E192" t="n">
         <v>2.9</v>
@@ -7550,16 +7547,16 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B193" t="s">
+        <v>497</v>
+      </c>
+      <c r="C193" t="s">
         <v>498</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>499</v>
-      </c>
-      <c r="D193" t="s">
-        <v>500</v>
       </c>
       <c r="E193" t="n">
         <v>0.19</v>
@@ -7573,16 +7570,16 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B194" t="s">
+        <v>500</v>
+      </c>
+      <c r="C194" t="s">
+        <v>415</v>
+      </c>
+      <c r="D194" t="s">
         <v>501</v>
-      </c>
-      <c r="C194" t="s">
-        <v>416</v>
-      </c>
-      <c r="D194" t="s">
-        <v>502</v>
       </c>
       <c r="E194" t="n">
         <v>0.67</v>
@@ -7596,16 +7593,16 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B195" t="s">
+        <v>502</v>
+      </c>
+      <c r="C195" t="s">
         <v>503</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>504</v>
-      </c>
-      <c r="D195" t="s">
-        <v>505</v>
       </c>
       <c r="E195" t="n">
         <v>0.18</v>
@@ -7619,16 +7616,16 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B196" t="s">
+        <v>505</v>
+      </c>
+      <c r="C196" t="s">
         <v>506</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>507</v>
-      </c>
-      <c r="D196" t="s">
-        <v>508</v>
       </c>
       <c r="E196" t="n">
         <v>0.49</v>
@@ -7642,16 +7639,16 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B197" t="s">
+        <v>508</v>
+      </c>
+      <c r="C197" t="s">
         <v>509</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>510</v>
-      </c>
-      <c r="D197" t="s">
-        <v>511</v>
       </c>
       <c r="E197" t="n">
         <v>0.47</v>
@@ -7665,10 +7662,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B198" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C198" t="s">
         <v>107</v>
@@ -7688,22 +7685,22 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
+        <v>512</v>
+      </c>
+      <c r="B199" t="s">
         <v>513</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>514</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>515</v>
-      </c>
-      <c r="D199" t="s">
-        <v>516</v>
       </c>
       <c r="E199" t="n">
         <v>8.99</v>
       </c>
       <c r="F199" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G199" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7711,22 +7708,22 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B200" t="s">
+        <v>517</v>
+      </c>
+      <c r="C200" t="s">
         <v>518</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>519</v>
-      </c>
-      <c r="D200" t="s">
-        <v>520</v>
       </c>
       <c r="E200" t="n">
         <v>5.5</v>
       </c>
       <c r="F200" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G200" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7734,22 +7731,22 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B201" t="s">
+        <v>520</v>
+      </c>
+      <c r="C201" t="s">
         <v>521</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>522</v>
-      </c>
-      <c r="D201" t="s">
-        <v>523</v>
       </c>
       <c r="E201" t="n">
         <v>6.59</v>
       </c>
       <c r="F201" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G201" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7757,22 +7754,22 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B202" t="s">
+        <v>523</v>
+      </c>
+      <c r="C202" t="s">
         <v>524</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>525</v>
-      </c>
-      <c r="D202" t="s">
-        <v>526</v>
       </c>
       <c r="E202" t="n">
         <v>15.88</v>
       </c>
       <c r="F202" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G202" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7780,22 +7777,22 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B203" t="s">
+        <v>526</v>
+      </c>
+      <c r="C203" t="s">
         <v>527</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>528</v>
-      </c>
-      <c r="D203" t="s">
-        <v>529</v>
       </c>
       <c r="E203" t="n">
         <v>12.56</v>
       </c>
       <c r="F203" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G203" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7803,22 +7800,22 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B204" t="s">
+        <v>529</v>
+      </c>
+      <c r="C204" t="s">
         <v>530</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>531</v>
-      </c>
-      <c r="D204" t="s">
-        <v>532</v>
       </c>
       <c r="E204" t="n">
         <v>2.73</v>
       </c>
       <c r="F204" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G204" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7826,22 +7823,22 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B205" t="s">
+        <v>532</v>
+      </c>
+      <c r="C205" t="s">
         <v>533</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>534</v>
-      </c>
-      <c r="D205" t="s">
-        <v>535</v>
       </c>
       <c r="E205" t="n">
         <v>19.74</v>
       </c>
       <c r="F205" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G205" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7849,22 +7846,22 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B206" t="s">
+        <v>535</v>
+      </c>
+      <c r="C206" t="s">
         <v>536</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>537</v>
-      </c>
-      <c r="D206" t="s">
-        <v>538</v>
       </c>
       <c r="E206" t="n">
         <v>5.13</v>
       </c>
       <c r="F206" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G206" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7872,22 +7869,22 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B207" t="s">
+        <v>538</v>
+      </c>
+      <c r="C207" t="s">
         <v>539</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>540</v>
-      </c>
-      <c r="D207" t="s">
-        <v>541</v>
       </c>
       <c r="E207" t="n">
         <v>2.36</v>
       </c>
       <c r="F207" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G207" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7895,22 +7892,22 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B208" t="s">
+        <v>541</v>
+      </c>
+      <c r="C208" t="s">
         <v>542</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>543</v>
-      </c>
-      <c r="D208" t="s">
-        <v>544</v>
       </c>
       <c r="E208" t="n">
         <v>2.27</v>
       </c>
       <c r="F208" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G208" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7918,22 +7915,22 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B209" t="s">
+        <v>544</v>
+      </c>
+      <c r="C209" t="s">
         <v>545</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>546</v>
-      </c>
-      <c r="D209" t="s">
-        <v>547</v>
       </c>
       <c r="E209" t="n">
         <v>1.92</v>
       </c>
       <c r="F209" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G209" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7941,22 +7938,22 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B210" t="s">
+        <v>547</v>
+      </c>
+      <c r="C210" t="s">
         <v>548</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>549</v>
-      </c>
-      <c r="D210" t="s">
-        <v>550</v>
       </c>
       <c r="E210" t="n">
         <v>6.51</v>
       </c>
       <c r="F210" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G210" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7964,22 +7961,22 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B211" t="s">
+        <v>550</v>
+      </c>
+      <c r="C211" t="s">
         <v>551</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>552</v>
-      </c>
-      <c r="D211" t="s">
-        <v>553</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
       </c>
       <c r="F211" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G211" s="1" t="n">
         <v>43619.4944444444</v>
@@ -7987,22 +7984,22 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B212" t="s">
+        <v>553</v>
+      </c>
+      <c r="C212" t="s">
         <v>554</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>555</v>
-      </c>
-      <c r="D212" t="s">
-        <v>556</v>
       </c>
       <c r="E212" t="n">
         <v>3.35</v>
       </c>
       <c r="F212" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G212" s="1" t="n">
         <v>43619.4944444444</v>
@@ -8010,10 +8007,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B213" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C213" t="s">
         <v>107</v>
@@ -8025,7 +8022,7 @@
         <v>2.47</v>
       </c>
       <c r="F213" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G213" s="1" t="n">
         <v>43619.4944444444</v>
@@ -8033,16 +8030,16 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
+        <v>557</v>
+      </c>
+      <c r="B214" t="s">
         <v>558</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>559</v>
       </c>
-      <c r="C214" t="s">
-        <v>560</v>
-      </c>
       <c r="D214" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E214" t="n">
         <v>18.91</v>
@@ -8056,16 +8053,16 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B215" t="s">
+        <v>560</v>
+      </c>
+      <c r="C215" t="s">
         <v>561</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>562</v>
-      </c>
-      <c r="D215" t="s">
-        <v>563</v>
       </c>
       <c r="E215" t="n">
         <v>12.19</v>
@@ -8079,16 +8076,16 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B216" t="s">
+        <v>563</v>
+      </c>
+      <c r="C216" t="s">
         <v>564</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>565</v>
-      </c>
-      <c r="D216" t="s">
-        <v>566</v>
       </c>
       <c r="E216" t="n">
         <v>21.44</v>
@@ -8102,16 +8099,16 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B217" t="s">
+        <v>566</v>
+      </c>
+      <c r="C217" t="s">
         <v>567</v>
       </c>
-      <c r="C217" t="s">
-        <v>568</v>
-      </c>
       <c r="D217" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E217" t="n">
         <v>4.83</v>
@@ -8125,16 +8122,16 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B218" t="s">
+        <v>568</v>
+      </c>
+      <c r="C218" t="s">
         <v>569</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>570</v>
-      </c>
-      <c r="D218" t="s">
-        <v>571</v>
       </c>
       <c r="E218" t="n">
         <v>21.1</v>
@@ -8148,16 +8145,16 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B219" t="s">
+        <v>571</v>
+      </c>
+      <c r="C219" t="s">
         <v>572</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>573</v>
-      </c>
-      <c r="D219" t="s">
-        <v>574</v>
       </c>
       <c r="E219" t="n">
         <v>10.04</v>
@@ -8171,16 +8168,16 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B220" t="s">
+        <v>574</v>
+      </c>
+      <c r="C220" t="s">
         <v>575</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>576</v>
-      </c>
-      <c r="D220" t="s">
-        <v>577</v>
       </c>
       <c r="E220" t="n">
         <v>7.7</v>
@@ -8194,16 +8191,16 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B221" t="s">
+        <v>577</v>
+      </c>
+      <c r="C221" t="s">
         <v>578</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>579</v>
-      </c>
-      <c r="D221" t="s">
-        <v>580</v>
       </c>
       <c r="E221" t="n">
         <v>1.14</v>
@@ -8217,16 +8214,16 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B222" t="s">
+        <v>580</v>
+      </c>
+      <c r="C222" t="s">
         <v>581</v>
       </c>
-      <c r="C222" t="s">
-        <v>582</v>
-      </c>
       <c r="D222" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E222" t="n">
         <v>0.53</v>
@@ -8240,16 +8237,16 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B223" t="s">
+        <v>582</v>
+      </c>
+      <c r="C223" t="s">
         <v>583</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>584</v>
-      </c>
-      <c r="D223" t="s">
-        <v>585</v>
       </c>
       <c r="E223" t="n">
         <v>2.11</v>
@@ -8263,16 +8260,16 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
+        <v>585</v>
+      </c>
+      <c r="B224" t="s">
         <v>586</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>587</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>588</v>
-      </c>
-      <c r="D224" t="s">
-        <v>589</v>
       </c>
       <c r="E224" t="n">
         <v>16.19</v>
@@ -8286,16 +8283,16 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B225" t="s">
+        <v>589</v>
+      </c>
+      <c r="C225" t="s">
         <v>590</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>591</v>
-      </c>
-      <c r="D225" t="s">
-        <v>592</v>
       </c>
       <c r="E225" t="n">
         <v>52.33</v>
@@ -8309,16 +8306,16 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B226" t="s">
+        <v>592</v>
+      </c>
+      <c r="C226" t="s">
         <v>593</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>594</v>
-      </c>
-      <c r="D226" t="s">
-        <v>595</v>
       </c>
       <c r="E226" t="n">
         <v>6.41</v>
@@ -8332,16 +8329,16 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B227" t="s">
+        <v>595</v>
+      </c>
+      <c r="C227" t="s">
         <v>596</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>597</v>
-      </c>
-      <c r="D227" t="s">
-        <v>598</v>
       </c>
       <c r="E227" t="n">
         <v>2.18</v>
@@ -8355,16 +8352,16 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B228" t="s">
+        <v>598</v>
+      </c>
+      <c r="C228" t="s">
         <v>599</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>600</v>
-      </c>
-      <c r="D228" t="s">
-        <v>601</v>
       </c>
       <c r="E228" t="n">
         <v>2.62</v>
@@ -8378,16 +8375,16 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B229" t="s">
+        <v>601</v>
+      </c>
+      <c r="C229" t="s">
         <v>602</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>603</v>
-      </c>
-      <c r="D229" t="s">
-        <v>604</v>
       </c>
       <c r="E229" t="n">
         <v>9.89</v>
@@ -8401,16 +8398,16 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B230" t="s">
+        <v>604</v>
+      </c>
+      <c r="C230" t="s">
         <v>605</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>606</v>
-      </c>
-      <c r="D230" t="s">
-        <v>607</v>
       </c>
       <c r="E230" t="n">
         <v>6.66</v>
@@ -8424,16 +8421,16 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B231" t="s">
+        <v>607</v>
+      </c>
+      <c r="C231" t="s">
         <v>608</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>609</v>
-      </c>
-      <c r="D231" t="s">
-        <v>610</v>
       </c>
       <c r="E231" t="n">
         <v>3.31</v>
@@ -8447,10 +8444,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B232" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C232" t="s">
         <v>107</v>
@@ -8470,22 +8467,22 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>611</v>
+      </c>
+      <c r="B233" t="s">
         <v>612</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>613</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>614</v>
-      </c>
-      <c r="D233" t="s">
-        <v>615</v>
       </c>
       <c r="E233" t="n">
         <v>37.9</v>
       </c>
       <c r="F233" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G233" s="1" t="n">
         <v>43614.6986111111</v>
@@ -8493,22 +8490,22 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B234" t="s">
+        <v>615</v>
+      </c>
+      <c r="C234" t="s">
         <v>616</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>617</v>
-      </c>
-      <c r="D234" t="s">
-        <v>618</v>
       </c>
       <c r="E234" t="n">
         <v>54.29</v>
       </c>
       <c r="F234" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G234" s="1" t="n">
         <v>43614.6986111111</v>
@@ -8516,22 +8513,22 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B235" t="s">
+        <v>618</v>
+      </c>
+      <c r="C235" t="s">
         <v>619</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>620</v>
-      </c>
-      <c r="D235" t="s">
-        <v>621</v>
       </c>
       <c r="E235" t="n">
         <v>0.72</v>
       </c>
       <c r="F235" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G235" s="1" t="n">
         <v>43614.6986111111</v>
@@ -8539,22 +8536,22 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B236" t="s">
+        <v>621</v>
+      </c>
+      <c r="C236" t="s">
+        <v>418</v>
+      </c>
+      <c r="D236" t="s">
         <v>622</v>
-      </c>
-      <c r="C236" t="s">
-        <v>419</v>
-      </c>
-      <c r="D236" t="s">
-        <v>623</v>
       </c>
       <c r="E236" t="n">
         <v>2.03</v>
       </c>
       <c r="F236" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G236" s="1" t="n">
         <v>43614.6986111111</v>
@@ -8562,10 +8559,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B237" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C237" t="s">
         <v>107</v>
@@ -8577,7 +8574,7 @@
         <v>5.06</v>
       </c>
       <c r="F237" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G237" s="1" t="n">
         <v>43614.6986111111</v>
@@ -8585,309 +8582,309 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>624</v>
+      </c>
+      <c r="B238" t="s">
         <v>625</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>626</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>627</v>
       </c>
-      <c r="D238" t="s">
-        <v>628</v>
-      </c>
       <c r="E238" t="n">
-        <v>12.1</v>
+        <v>12.18</v>
       </c>
       <c r="F238" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G238" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B239" t="s">
+        <v>628</v>
+      </c>
+      <c r="C239" t="s">
         <v>629</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>630</v>
       </c>
-      <c r="D239" t="s">
-        <v>631</v>
-      </c>
       <c r="E239" t="n">
-        <v>18.9</v>
+        <v>19.01</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G239" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B240" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C240" t="s">
         <v>54</v>
       </c>
       <c r="D240" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E240" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="F240" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G240" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B241" t="s">
+        <v>633</v>
+      </c>
+      <c r="C241" t="s">
         <v>634</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>635</v>
       </c>
-      <c r="D241" t="s">
-        <v>636</v>
-      </c>
       <c r="E241" t="n">
-        <v>14.6</v>
+        <v>14.64</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G241" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B242" t="s">
+        <v>636</v>
+      </c>
+      <c r="C242" t="s">
         <v>637</v>
       </c>
-      <c r="C242" t="s">
-        <v>638</v>
-      </c>
       <c r="D242" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E242" t="n">
         <v>10.9</v>
       </c>
       <c r="F242" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G242" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B243" t="s">
+        <v>638</v>
+      </c>
+      <c r="C243" t="s">
         <v>639</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>640</v>
       </c>
-      <c r="D243" t="s">
-        <v>641</v>
-      </c>
       <c r="E243" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="F243" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G243" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B244" t="s">
+        <v>641</v>
+      </c>
+      <c r="C244" t="s">
         <v>642</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>643</v>
       </c>
-      <c r="D244" t="s">
-        <v>644</v>
-      </c>
       <c r="E244" t="n">
-        <v>7</v>
+        <v>7.09</v>
       </c>
       <c r="F244" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G244" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B245" t="s">
+        <v>644</v>
+      </c>
+      <c r="C245" t="s">
         <v>645</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>646</v>
       </c>
-      <c r="D245" t="s">
-        <v>647</v>
-      </c>
       <c r="E245" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G245" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B246" t="s">
+        <v>647</v>
+      </c>
+      <c r="C246" t="s">
         <v>648</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>649</v>
       </c>
-      <c r="D246" t="s">
-        <v>650</v>
-      </c>
       <c r="E246" t="n">
-        <v>6.8</v>
+        <v>6.83</v>
       </c>
       <c r="F246" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G246" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B247" t="s">
+        <v>650</v>
+      </c>
+      <c r="C247" t="s">
         <v>651</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>652</v>
       </c>
-      <c r="D247" t="s">
-        <v>653</v>
-      </c>
       <c r="E247" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G247" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B248" t="s">
+        <v>653</v>
+      </c>
+      <c r="C248" t="s">
         <v>654</v>
       </c>
-      <c r="C248" t="s">
-        <v>655</v>
-      </c>
       <c r="D248" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E248" t="n">
         <v>1.1</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G248" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B249" t="s">
+        <v>655</v>
+      </c>
+      <c r="C249" t="s">
         <v>656</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>657</v>
       </c>
-      <c r="D249" t="s">
-        <v>658</v>
-      </c>
       <c r="E249" t="n">
-        <v>10.9</v>
+        <v>10.96</v>
       </c>
       <c r="F249" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G249" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B250" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C250" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D250" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E250" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="F250" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G250" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B251" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C251" t="s">
         <v>107</v>
@@ -8896,27 +8893,27 @@
         <v>107</v>
       </c>
       <c r="E251" t="n">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="F251" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G251" s="1" t="n">
-        <v>43612.4868055556</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
+        <v>660</v>
+      </c>
+      <c r="B252" t="s">
         <v>661</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>662</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>663</v>
-      </c>
-      <c r="D252" t="s">
-        <v>664</v>
       </c>
       <c r="E252" t="n">
         <v>23.9</v>
@@ -8930,16 +8927,16 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B253" t="s">
+        <v>664</v>
+      </c>
+      <c r="C253" t="s">
         <v>665</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>666</v>
-      </c>
-      <c r="D253" t="s">
-        <v>667</v>
       </c>
       <c r="E253" t="n">
         <v>34.6</v>
@@ -8953,16 +8950,16 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B254" t="s">
+        <v>667</v>
+      </c>
+      <c r="C254" t="s">
         <v>668</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>669</v>
-      </c>
-      <c r="D254" t="s">
-        <v>670</v>
       </c>
       <c r="E254" t="n">
         <v>17.2</v>
@@ -8976,16 +8973,16 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B255" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C255" t="s">
         <v>183</v>
       </c>
       <c r="D255" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E255" t="n">
         <v>14.1</v>
@@ -8999,16 +8996,16 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B256" t="s">
+        <v>672</v>
+      </c>
+      <c r="C256" t="s">
         <v>673</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>674</v>
-      </c>
-      <c r="D256" t="s">
-        <v>675</v>
       </c>
       <c r="E256" t="n">
         <v>8.4</v>
@@ -9022,16 +9019,16 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B257" t="s">
+        <v>675</v>
+      </c>
+      <c r="C257" t="s">
         <v>676</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>677</v>
-      </c>
-      <c r="D257" t="s">
-        <v>678</v>
       </c>
       <c r="E257" t="n">
         <v>1</v>
@@ -9045,10 +9042,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B258" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C258" t="s">
         <v>107</v>
@@ -9068,22 +9065,22 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
+        <v>679</v>
+      </c>
+      <c r="B259" t="s">
         <v>680</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>681</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>682</v>
-      </c>
-      <c r="D259" t="s">
-        <v>683</v>
       </c>
       <c r="E259" t="n">
         <v>45.38</v>
       </c>
       <c r="F259" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G259" s="1" t="n">
         <v>43614.6986111111</v>
@@ -9091,22 +9088,22 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B260" t="s">
+        <v>683</v>
+      </c>
+      <c r="C260" t="s">
         <v>684</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>685</v>
-      </c>
-      <c r="D260" t="s">
-        <v>686</v>
       </c>
       <c r="E260" t="n">
         <v>4.55</v>
       </c>
       <c r="F260" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G260" s="1" t="n">
         <v>43614.6986111111</v>
@@ -9114,22 +9111,22 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B261" t="s">
+        <v>686</v>
+      </c>
+      <c r="C261" t="s">
         <v>687</v>
       </c>
-      <c r="C261" t="s">
-        <v>688</v>
-      </c>
       <c r="D261" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E261" t="n">
         <v>3.69</v>
       </c>
       <c r="F261" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G261" s="1" t="n">
         <v>43614.6986111111</v>
@@ -9137,22 +9134,22 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B262" t="s">
+        <v>688</v>
+      </c>
+      <c r="C262" t="s">
         <v>689</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>690</v>
-      </c>
-      <c r="D262" t="s">
-        <v>691</v>
       </c>
       <c r="E262" t="n">
         <v>6.06</v>
       </c>
       <c r="F262" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G262" s="1" t="n">
         <v>43614.6986111111</v>
@@ -9160,22 +9157,22 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B263" t="s">
+        <v>691</v>
+      </c>
+      <c r="C263" t="s">
         <v>692</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>693</v>
-      </c>
-      <c r="D263" t="s">
-        <v>694</v>
       </c>
       <c r="E263" t="n">
         <v>38.47</v>
       </c>
       <c r="F263" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G263" s="1" t="n">
         <v>43614.6986111111</v>
@@ -9183,22 +9180,22 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B264" t="s">
+        <v>694</v>
+      </c>
+      <c r="C264" t="s">
         <v>695</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>696</v>
-      </c>
-      <c r="D264" t="s">
-        <v>697</v>
       </c>
       <c r="E264" t="n">
         <v>0.54</v>
       </c>
       <c r="F264" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G264" s="1" t="n">
         <v>43614.6986111111</v>
@@ -9206,22 +9203,22 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B265" t="s">
+        <v>697</v>
+      </c>
+      <c r="C265" t="s">
         <v>698</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>699</v>
-      </c>
-      <c r="D265" t="s">
-        <v>700</v>
       </c>
       <c r="E265" t="n">
         <v>1.24</v>
       </c>
       <c r="F265" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G265" s="1" t="n">
         <v>43614.6986111111</v>
@@ -9229,10 +9226,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B266" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C266" t="s">
         <v>107</v>
@@ -9244,7 +9241,7 @@
         <v>0.07</v>
       </c>
       <c r="F266" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G266" s="1" t="n">
         <v>43614.6986111111</v>
@@ -9252,16 +9249,16 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
+        <v>701</v>
+      </c>
+      <c r="B267" t="s">
         <v>702</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>703</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>704</v>
-      </c>
-      <c r="D267" t="s">
-        <v>705</v>
       </c>
       <c r="E267" t="n">
         <v>9.82</v>
@@ -9275,16 +9272,16 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B268" t="s">
+        <v>705</v>
+      </c>
+      <c r="C268" t="s">
         <v>706</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>707</v>
-      </c>
-      <c r="D268" t="s">
-        <v>708</v>
       </c>
       <c r="E268" t="n">
         <v>6.88</v>
@@ -9298,16 +9295,16 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B269" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C269" t="s">
         <v>30</v>
       </c>
       <c r="D269" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E269" t="n">
         <v>33.38</v>
@@ -9321,16 +9318,16 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B270" t="s">
+        <v>710</v>
+      </c>
+      <c r="C270" t="s">
         <v>711</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>712</v>
-      </c>
-      <c r="D270" t="s">
-        <v>713</v>
       </c>
       <c r="E270" t="n">
         <v>21.94</v>
@@ -9344,16 +9341,16 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B271" t="s">
+        <v>713</v>
+      </c>
+      <c r="C271" t="s">
         <v>714</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>715</v>
-      </c>
-      <c r="D271" t="s">
-        <v>716</v>
       </c>
       <c r="E271" t="n">
         <v>6.19</v>
@@ -9367,16 +9364,16 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B272" t="s">
+        <v>716</v>
+      </c>
+      <c r="C272" t="s">
         <v>717</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>718</v>
-      </c>
-      <c r="D272" t="s">
-        <v>719</v>
       </c>
       <c r="E272" t="n">
         <v>5.08</v>
@@ -9390,16 +9387,16 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B273" t="s">
+        <v>719</v>
+      </c>
+      <c r="C273" t="s">
         <v>720</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>721</v>
-      </c>
-      <c r="D273" t="s">
-        <v>722</v>
       </c>
       <c r="E273" t="n">
         <v>1.87</v>
@@ -9413,10 +9410,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B274" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C274" t="s">
         <v>107</v>
@@ -9436,16 +9433,16 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
+        <v>723</v>
+      </c>
+      <c r="B275" t="s">
         <v>724</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
+        <v>711</v>
+      </c>
+      <c r="D275" t="s">
         <v>725</v>
-      </c>
-      <c r="C275" t="s">
-        <v>712</v>
-      </c>
-      <c r="D275" t="s">
-        <v>726</v>
       </c>
       <c r="E275" t="n">
         <v>22.5</v>
@@ -9459,16 +9456,16 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B276" t="s">
+        <v>726</v>
+      </c>
+      <c r="C276" t="s">
         <v>727</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>728</v>
-      </c>
-      <c r="D276" t="s">
-        <v>729</v>
       </c>
       <c r="E276" t="n">
         <v>4.11</v>
@@ -9482,16 +9479,16 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B277" t="s">
+        <v>729</v>
+      </c>
+      <c r="C277" t="s">
         <v>730</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>731</v>
-      </c>
-      <c r="D277" t="s">
-        <v>732</v>
       </c>
       <c r="E277" t="n">
         <v>27</v>
@@ -9505,16 +9502,16 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B278" t="s">
+        <v>732</v>
+      </c>
+      <c r="C278" t="s">
         <v>733</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
         <v>734</v>
-      </c>
-      <c r="D278" t="s">
-        <v>735</v>
       </c>
       <c r="E278" t="n">
         <v>5.26</v>
@@ -9528,16 +9525,16 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B279" t="s">
+        <v>735</v>
+      </c>
+      <c r="C279" t="s">
         <v>736</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
         <v>737</v>
-      </c>
-      <c r="D279" t="s">
-        <v>738</v>
       </c>
       <c r="E279" t="n">
         <v>5.76</v>
@@ -9551,16 +9548,16 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B280" t="s">
+        <v>738</v>
+      </c>
+      <c r="C280" t="s">
         <v>739</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>740</v>
-      </c>
-      <c r="D280" t="s">
-        <v>741</v>
       </c>
       <c r="E280" t="n">
         <v>6.44</v>
@@ -9574,16 +9571,16 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B281" t="s">
+        <v>741</v>
+      </c>
+      <c r="C281" t="s">
         <v>742</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>743</v>
-      </c>
-      <c r="D281" t="s">
-        <v>744</v>
       </c>
       <c r="E281" t="n">
         <v>22.36</v>
@@ -9597,10 +9594,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B282" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C282" t="s">
         <v>107</v>
@@ -9620,16 +9617,16 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
+        <v>745</v>
+      </c>
+      <c r="B283" t="s">
         <v>746</v>
       </c>
-      <c r="B283" t="s">
+      <c r="C283" t="s">
         <v>747</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>748</v>
-      </c>
-      <c r="D283" t="s">
-        <v>749</v>
       </c>
       <c r="E283" t="n">
         <v>26.25</v>
@@ -9643,16 +9640,16 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B284" t="s">
+        <v>749</v>
+      </c>
+      <c r="C284" t="s">
+        <v>262</v>
+      </c>
+      <c r="D284" t="s">
         <v>750</v>
-      </c>
-      <c r="C284" t="s">
-        <v>263</v>
-      </c>
-      <c r="D284" t="s">
-        <v>751</v>
       </c>
       <c r="E284" t="n">
         <v>18.66</v>
@@ -9666,16 +9663,16 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B285" t="s">
+        <v>751</v>
+      </c>
+      <c r="C285" t="s">
         <v>752</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>753</v>
-      </c>
-      <c r="D285" t="s">
-        <v>754</v>
       </c>
       <c r="E285" t="n">
         <v>5.67</v>
@@ -9689,16 +9686,16 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B286" t="s">
+        <v>754</v>
+      </c>
+      <c r="C286" t="s">
         <v>755</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>756</v>
-      </c>
-      <c r="D286" t="s">
-        <v>757</v>
       </c>
       <c r="E286" t="n">
         <v>11.12</v>
@@ -9712,16 +9709,16 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B287" t="s">
+        <v>757</v>
+      </c>
+      <c r="C287" t="s">
         <v>758</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>759</v>
-      </c>
-      <c r="D287" t="s">
-        <v>760</v>
       </c>
       <c r="E287" t="n">
         <v>4.01</v>
@@ -9735,16 +9732,16 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B288" t="s">
+        <v>760</v>
+      </c>
+      <c r="C288" t="s">
         <v>761</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
         <v>762</v>
-      </c>
-      <c r="D288" t="s">
-        <v>763</v>
       </c>
       <c r="E288" t="n">
         <v>1.62</v>
@@ -9758,16 +9755,16 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B289" t="s">
+        <v>763</v>
+      </c>
+      <c r="C289" t="s">
         <v>764</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>765</v>
-      </c>
-      <c r="D289" t="s">
-        <v>766</v>
       </c>
       <c r="E289" t="n">
         <v>4.02</v>
@@ -9781,16 +9778,16 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B290" t="s">
+        <v>766</v>
+      </c>
+      <c r="C290" t="s">
         <v>767</v>
       </c>
-      <c r="C290" t="s">
-        <v>768</v>
-      </c>
       <c r="D290" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E290" t="n">
         <v>6.43</v>
@@ -9804,16 +9801,16 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B291" t="s">
+        <v>768</v>
+      </c>
+      <c r="C291" t="s">
         <v>769</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>770</v>
-      </c>
-      <c r="D291" t="s">
-        <v>771</v>
       </c>
       <c r="E291" t="n">
         <v>15.44</v>
@@ -9827,16 +9824,16 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B292" t="s">
+        <v>771</v>
+      </c>
+      <c r="C292" t="s">
         <v>772</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>773</v>
-      </c>
-      <c r="D292" t="s">
-        <v>774</v>
       </c>
       <c r="E292" t="n">
         <v>1.7</v>
@@ -9850,16 +9847,16 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B293" t="s">
+        <v>774</v>
+      </c>
+      <c r="C293" t="s">
         <v>775</v>
       </c>
-      <c r="C293" t="s">
-        <v>776</v>
-      </c>
       <c r="D293" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E293" t="n">
         <v>1.66</v>
@@ -9873,16 +9870,16 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B294" t="s">
+        <v>776</v>
+      </c>
+      <c r="C294" t="s">
         <v>777</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>778</v>
-      </c>
-      <c r="D294" t="s">
-        <v>779</v>
       </c>
       <c r="E294" t="n">
         <v>0.52</v>
@@ -9896,16 +9893,16 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B295" t="s">
+        <v>779</v>
+      </c>
+      <c r="C295" t="s">
         <v>780</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>781</v>
-      </c>
-      <c r="D295" t="s">
-        <v>782</v>
       </c>
       <c r="E295" t="n">
         <v>0.68</v>
@@ -9919,16 +9916,16 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B296" t="s">
+        <v>782</v>
+      </c>
+      <c r="C296" t="s">
         <v>783</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>784</v>
-      </c>
-      <c r="D296" t="s">
-        <v>785</v>
       </c>
       <c r="E296" t="n">
         <v>2.22</v>
@@ -9942,10 +9939,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B297" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C297" t="s">
         <v>107</v>
@@ -9965,16 +9962,16 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
+        <v>786</v>
+      </c>
+      <c r="B298" t="s">
         <v>787</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
         <v>788</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
         <v>789</v>
-      </c>
-      <c r="D298" t="s">
-        <v>790</v>
       </c>
       <c r="E298" t="n">
         <v>9.69</v>
@@ -9988,16 +9985,16 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B299" t="s">
+        <v>790</v>
+      </c>
+      <c r="C299" t="s">
         <v>791</v>
       </c>
-      <c r="C299" t="s">
+      <c r="D299" t="s">
         <v>792</v>
-      </c>
-      <c r="D299" t="s">
-        <v>793</v>
       </c>
       <c r="E299" t="n">
         <v>9.62</v>
@@ -10011,16 +10008,16 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B300" t="s">
+        <v>793</v>
+      </c>
+      <c r="C300" t="s">
+        <v>758</v>
+      </c>
+      <c r="D300" t="s">
         <v>794</v>
-      </c>
-      <c r="C300" t="s">
-        <v>759</v>
-      </c>
-      <c r="D300" t="s">
-        <v>795</v>
       </c>
       <c r="E300" t="n">
         <v>4.09</v>
@@ -10034,16 +10031,16 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B301" t="s">
+        <v>795</v>
+      </c>
+      <c r="C301" t="s">
         <v>796</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>797</v>
-      </c>
-      <c r="D301" t="s">
-        <v>798</v>
       </c>
       <c r="E301" t="n">
         <v>15.72</v>
@@ -10057,16 +10054,16 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B302" t="s">
+        <v>798</v>
+      </c>
+      <c r="C302" t="s">
         <v>799</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>800</v>
-      </c>
-      <c r="D302" t="s">
-        <v>801</v>
       </c>
       <c r="E302" t="n">
         <v>4.96</v>
@@ -10080,16 +10077,16 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B303" t="s">
+        <v>801</v>
+      </c>
+      <c r="C303" t="s">
         <v>802</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>803</v>
-      </c>
-      <c r="D303" t="s">
-        <v>804</v>
       </c>
       <c r="E303" t="n">
         <v>5.25</v>
@@ -10103,16 +10100,16 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B304" t="s">
+        <v>804</v>
+      </c>
+      <c r="C304" t="s">
         <v>805</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
         <v>806</v>
-      </c>
-      <c r="D304" t="s">
-        <v>807</v>
       </c>
       <c r="E304" t="n">
         <v>2.59</v>
@@ -10126,16 +10123,16 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B305" t="s">
+        <v>807</v>
+      </c>
+      <c r="C305" t="s">
         <v>808</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>809</v>
-      </c>
-      <c r="D305" t="s">
-        <v>810</v>
       </c>
       <c r="E305" t="n">
         <v>12.07</v>
@@ -10149,16 +10146,16 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B306" t="s">
+        <v>810</v>
+      </c>
+      <c r="C306" t="s">
         <v>811</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
         <v>812</v>
-      </c>
-      <c r="D306" t="s">
-        <v>813</v>
       </c>
       <c r="E306" t="n">
         <v>3.23</v>
@@ -10172,16 +10169,16 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B307" t="s">
+        <v>813</v>
+      </c>
+      <c r="C307" t="s">
         <v>814</v>
       </c>
-      <c r="C307" t="s">
+      <c r="D307" t="s">
         <v>815</v>
-      </c>
-      <c r="D307" t="s">
-        <v>816</v>
       </c>
       <c r="E307" t="n">
         <v>20.11</v>
@@ -10195,16 +10192,16 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B308" t="s">
+        <v>816</v>
+      </c>
+      <c r="C308" t="s">
         <v>817</v>
       </c>
-      <c r="C308" t="s">
+      <c r="D308" t="s">
         <v>818</v>
-      </c>
-      <c r="D308" t="s">
-        <v>819</v>
       </c>
       <c r="E308" t="n">
         <v>3.85</v>
@@ -10218,16 +10215,16 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B309" t="s">
+        <v>819</v>
+      </c>
+      <c r="C309" t="s">
         <v>820</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
         <v>821</v>
-      </c>
-      <c r="D309" t="s">
-        <v>822</v>
       </c>
       <c r="E309" t="n">
         <v>2.06</v>
@@ -10241,10 +10238,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B310" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C310" t="s">
         <v>107</v>
@@ -10264,16 +10261,16 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
+        <v>823</v>
+      </c>
+      <c r="B311" t="s">
         <v>824</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C311" t="s">
         <v>825</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
         <v>826</v>
-      </c>
-      <c r="D311" t="s">
-        <v>827</v>
       </c>
       <c r="E311" t="n">
         <v>13.5</v>
@@ -10287,16 +10284,16 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B312" t="s">
+        <v>827</v>
+      </c>
+      <c r="C312" t="s">
         <v>828</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>829</v>
-      </c>
-      <c r="D312" t="s">
-        <v>830</v>
       </c>
       <c r="E312" t="n">
         <v>20.8</v>
@@ -10310,16 +10307,16 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B313" t="s">
+        <v>830</v>
+      </c>
+      <c r="C313" t="s">
+        <v>374</v>
+      </c>
+      <c r="D313" t="s">
         <v>831</v>
-      </c>
-      <c r="C313" t="s">
-        <v>375</v>
-      </c>
-      <c r="D313" t="s">
-        <v>832</v>
       </c>
       <c r="E313" t="n">
         <v>14.6</v>
@@ -10333,16 +10330,16 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B314" t="s">
+        <v>832</v>
+      </c>
+      <c r="C314" t="s">
         <v>833</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" t="s">
         <v>834</v>
-      </c>
-      <c r="D314" t="s">
-        <v>835</v>
       </c>
       <c r="E314" t="n">
         <v>6.9</v>
@@ -10356,16 +10353,16 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B315" t="s">
+        <v>835</v>
+      </c>
+      <c r="C315" t="s">
         <v>836</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
         <v>837</v>
-      </c>
-      <c r="D315" t="s">
-        <v>838</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -10379,16 +10376,16 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B316" t="s">
+        <v>838</v>
+      </c>
+      <c r="C316" t="s">
         <v>839</v>
       </c>
-      <c r="C316" t="s">
+      <c r="D316" t="s">
         <v>840</v>
-      </c>
-      <c r="D316" t="s">
-        <v>841</v>
       </c>
       <c r="E316" t="n">
         <v>6.3</v>
@@ -10402,16 +10399,16 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B317" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C317" t="s">
         <v>30</v>
       </c>
       <c r="D317" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E317" t="n">
         <v>13.8</v>
@@ -10425,16 +10422,16 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B318" t="s">
+        <v>843</v>
+      </c>
+      <c r="C318" t="s">
         <v>844</v>
       </c>
-      <c r="C318" t="s">
+      <c r="D318" t="s">
         <v>845</v>
-      </c>
-      <c r="D318" t="s">
-        <v>846</v>
       </c>
       <c r="E318" t="n">
         <v>4.9</v>
@@ -10448,16 +10445,16 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B319" t="s">
+        <v>846</v>
+      </c>
+      <c r="C319" t="s">
         <v>847</v>
       </c>
-      <c r="C319" t="s">
+      <c r="D319" t="s">
         <v>848</v>
-      </c>
-      <c r="D319" t="s">
-        <v>849</v>
       </c>
       <c r="E319" t="n">
         <v>0.3</v>
@@ -10471,16 +10468,16 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B320" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C320" t="s">
         <v>48</v>
       </c>
       <c r="D320" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E320" t="n">
         <v>0.7</v>
@@ -10494,10 +10491,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B321" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C321" t="s">
         <v>107</v>
@@ -10517,16 +10514,16 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
+        <v>852</v>
+      </c>
+      <c r="B322" t="s">
         <v>853</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" t="s">
         <v>854</v>
       </c>
-      <c r="C322" t="s">
+      <c r="D322" t="s">
         <v>855</v>
-      </c>
-      <c r="D322" t="s">
-        <v>856</v>
       </c>
       <c r="E322" t="n">
         <v>6.8</v>
@@ -10540,16 +10537,16 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B323" t="s">
+        <v>856</v>
+      </c>
+      <c r="C323" t="s">
         <v>857</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
         <v>858</v>
-      </c>
-      <c r="D323" t="s">
-        <v>859</v>
       </c>
       <c r="E323" t="n">
         <v>23.48</v>
@@ -10563,16 +10560,16 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B324" t="s">
+        <v>859</v>
+      </c>
+      <c r="C324" t="s">
         <v>860</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>861</v>
-      </c>
-      <c r="D324" t="s">
-        <v>862</v>
       </c>
       <c r="E324" t="n">
         <v>10.78</v>
@@ -10586,16 +10583,16 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B325" t="s">
+        <v>862</v>
+      </c>
+      <c r="C325" t="s">
         <v>863</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>864</v>
-      </c>
-      <c r="D325" t="s">
-        <v>865</v>
       </c>
       <c r="E325" t="n">
         <v>4.13</v>
@@ -10609,16 +10606,16 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B326" t="s">
+        <v>865</v>
+      </c>
+      <c r="C326" t="s">
         <v>866</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" t="s">
         <v>867</v>
-      </c>
-      <c r="D326" t="s">
-        <v>868</v>
       </c>
       <c r="E326" t="n">
         <v>16.83</v>
@@ -10632,16 +10629,16 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B327" t="s">
+        <v>868</v>
+      </c>
+      <c r="C327" t="s">
+        <v>844</v>
+      </c>
+      <c r="D327" t="s">
         <v>869</v>
-      </c>
-      <c r="C327" t="s">
-        <v>845</v>
-      </c>
-      <c r="D327" t="s">
-        <v>870</v>
       </c>
       <c r="E327" t="n">
         <v>8.62</v>
@@ -10655,16 +10652,16 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B328" t="s">
+        <v>870</v>
+      </c>
+      <c r="C328" t="s">
         <v>871</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>872</v>
-      </c>
-      <c r="D328" t="s">
-        <v>873</v>
       </c>
       <c r="E328" t="n">
         <v>11.52</v>
@@ -10678,16 +10675,16 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B329" t="s">
+        <v>873</v>
+      </c>
+      <c r="C329" t="s">
+        <v>262</v>
+      </c>
+      <c r="D329" t="s">
         <v>874</v>
-      </c>
-      <c r="C329" t="s">
-        <v>263</v>
-      </c>
-      <c r="D329" t="s">
-        <v>875</v>
       </c>
       <c r="E329" t="n">
         <v>15.34</v>
@@ -10701,16 +10698,16 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B330" t="s">
+        <v>875</v>
+      </c>
+      <c r="C330" t="s">
+        <v>340</v>
+      </c>
+      <c r="D330" t="s">
         <v>876</v>
-      </c>
-      <c r="C330" t="s">
-        <v>341</v>
-      </c>
-      <c r="D330" t="s">
-        <v>877</v>
       </c>
       <c r="E330" t="n">
         <v>0.77</v>
@@ -10724,10 +10721,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B331" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C331" t="s">
         <v>107</v>
@@ -10747,16 +10744,16 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
+        <v>878</v>
+      </c>
+      <c r="B332" t="s">
         <v>879</v>
       </c>
-      <c r="B332" t="s">
-        <v>880</v>
-      </c>
       <c r="C332" t="s">
+        <v>256</v>
+      </c>
+      <c r="D332" t="s">
         <v>257</v>
-      </c>
-      <c r="D332" t="s">
-        <v>258</v>
       </c>
       <c r="E332" t="n">
         <v>0.62</v>
@@ -10765,21 +10762,21 @@
         <v>81</v>
       </c>
       <c r="G332" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B333" t="s">
+        <v>880</v>
+      </c>
+      <c r="C333" t="s">
         <v>881</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>882</v>
-      </c>
-      <c r="D333" t="s">
-        <v>883</v>
       </c>
       <c r="E333" t="n">
         <v>0.59</v>
@@ -10788,21 +10785,21 @@
         <v>81</v>
       </c>
       <c r="G333" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B334" t="s">
+        <v>883</v>
+      </c>
+      <c r="C334" t="s">
         <v>884</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>885</v>
-      </c>
-      <c r="D334" t="s">
-        <v>886</v>
       </c>
       <c r="E334" t="n">
         <v>0.25</v>
@@ -10811,21 +10808,21 @@
         <v>81</v>
       </c>
       <c r="G334" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B335" t="s">
+        <v>886</v>
+      </c>
+      <c r="C335" t="s">
         <v>887</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>888</v>
-      </c>
-      <c r="D335" t="s">
-        <v>889</v>
       </c>
       <c r="E335" t="n">
         <v>0.37</v>
@@ -10834,21 +10831,21 @@
         <v>81</v>
       </c>
       <c r="G335" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B336" t="s">
+        <v>889</v>
+      </c>
+      <c r="C336" t="s">
         <v>890</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" t="s">
         <v>891</v>
-      </c>
-      <c r="D336" t="s">
-        <v>892</v>
       </c>
       <c r="E336" t="n">
         <v>0.29</v>
@@ -10857,21 +10854,21 @@
         <v>81</v>
       </c>
       <c r="G336" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B337" t="s">
+        <v>892</v>
+      </c>
+      <c r="C337" t="s">
         <v>893</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" t="s">
         <v>894</v>
-      </c>
-      <c r="D337" t="s">
-        <v>895</v>
       </c>
       <c r="E337" t="n">
         <v>0.5</v>
@@ -10880,44 +10877,44 @@
         <v>81</v>
       </c>
       <c r="G337" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B338" t="s">
+        <v>895</v>
+      </c>
+      <c r="C338" t="s">
         <v>896</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" t="s">
         <v>897</v>
       </c>
-      <c r="D338" t="s">
-        <v>898</v>
-      </c>
       <c r="E338" t="n">
-        <v>8.85</v>
+        <v>8.84</v>
       </c>
       <c r="F338" t="s">
         <v>81</v>
       </c>
       <c r="G338" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B339" t="s">
+        <v>898</v>
+      </c>
+      <c r="C339" t="s">
         <v>899</v>
       </c>
-      <c r="C339" t="s">
-        <v>900</v>
-      </c>
       <c r="D339" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E339" t="n">
         <v>13.72</v>
@@ -10926,21 +10923,21 @@
         <v>81</v>
       </c>
       <c r="G339" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B340" t="s">
+        <v>900</v>
+      </c>
+      <c r="C340" t="s">
         <v>901</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>902</v>
-      </c>
-      <c r="D340" t="s">
-        <v>903</v>
       </c>
       <c r="E340" t="n">
         <v>3.21</v>
@@ -10949,21 +10946,21 @@
         <v>81</v>
       </c>
       <c r="G340" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B341" t="s">
+        <v>903</v>
+      </c>
+      <c r="C341" t="s">
         <v>904</v>
       </c>
-      <c r="C341" t="s">
+      <c r="D341" t="s">
         <v>905</v>
-      </c>
-      <c r="D341" t="s">
-        <v>906</v>
       </c>
       <c r="E341" t="n">
         <v>3.5</v>
@@ -10972,21 +10969,21 @@
         <v>81</v>
       </c>
       <c r="G341" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B342" t="s">
+        <v>906</v>
+      </c>
+      <c r="C342" t="s">
         <v>907</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>908</v>
-      </c>
-      <c r="D342" t="s">
-        <v>909</v>
       </c>
       <c r="E342" t="n">
         <v>0.97</v>
@@ -10995,67 +10992,67 @@
         <v>81</v>
       </c>
       <c r="G342" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B343" t="s">
+        <v>909</v>
+      </c>
+      <c r="C343" t="s">
         <v>910</v>
       </c>
-      <c r="C343" t="s">
+      <c r="D343" t="s">
         <v>911</v>
       </c>
-      <c r="D343" t="s">
-        <v>912</v>
-      </c>
       <c r="E343" t="n">
-        <v>19.76</v>
+        <v>19.75</v>
       </c>
       <c r="F343" t="s">
         <v>81</v>
       </c>
       <c r="G343" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B344" t="s">
+        <v>912</v>
+      </c>
+      <c r="C344" t="s">
+        <v>253</v>
+      </c>
+      <c r="D344" t="s">
         <v>913</v>
       </c>
-      <c r="C344" t="s">
-        <v>254</v>
-      </c>
-      <c r="D344" t="s">
-        <v>914</v>
-      </c>
       <c r="E344" t="n">
-        <v>11.77</v>
+        <v>11.76</v>
       </c>
       <c r="F344" t="s">
         <v>81</v>
       </c>
       <c r="G344" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B345" t="s">
+        <v>914</v>
+      </c>
+      <c r="C345" t="s">
         <v>915</v>
       </c>
-      <c r="C345" t="s">
-        <v>916</v>
-      </c>
       <c r="D345" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E345" t="n">
         <v>3.31</v>
@@ -11064,44 +11061,44 @@
         <v>81</v>
       </c>
       <c r="G345" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B346" t="s">
+        <v>916</v>
+      </c>
+      <c r="C346" t="s">
         <v>917</v>
       </c>
-      <c r="C346" t="s">
-        <v>918</v>
-      </c>
       <c r="D346" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E346" t="n">
-        <v>30.75</v>
+        <v>30.74</v>
       </c>
       <c r="F346" t="s">
         <v>81</v>
       </c>
       <c r="G346" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B347" t="s">
+        <v>918</v>
+      </c>
+      <c r="C347" t="s">
         <v>919</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" t="s">
         <v>920</v>
-      </c>
-      <c r="D347" t="s">
-        <v>921</v>
       </c>
       <c r="E347" t="n">
         <v>0.1</v>
@@ -11110,21 +11107,21 @@
         <v>81</v>
       </c>
       <c r="G347" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B348" t="s">
+        <v>921</v>
+      </c>
+      <c r="C348" t="s">
         <v>922</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" t="s">
         <v>923</v>
-      </c>
-      <c r="D348" t="s">
-        <v>924</v>
       </c>
       <c r="E348" t="n">
         <v>1.48</v>
@@ -11133,21 +11130,21 @@
         <v>81</v>
       </c>
       <c r="G348" s="1" t="n">
-        <v>43614.4965277778</v>
+        <v>43621.7104166667</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B349" t="s">
+        <v>895</v>
+      </c>
+      <c r="C349" t="s">
         <v>896</v>
       </c>
-      <c r="C349" t="s">
+      <c r="D349" t="s">
         <v>897</v>
-      </c>
-      <c r="D349" t="s">
-        <v>898</v>
       </c>
       <c r="E349" t="n">
         <v>9.09</v>
@@ -11161,16 +11158,16 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B350" t="s">
+        <v>898</v>
+      </c>
+      <c r="C350" t="s">
         <v>899</v>
       </c>
-      <c r="C350" t="s">
-        <v>900</v>
-      </c>
       <c r="D350" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E350" t="n">
         <v>14.1</v>
@@ -11184,16 +11181,16 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B351" t="s">
+        <v>900</v>
+      </c>
+      <c r="C351" t="s">
         <v>901</v>
       </c>
-      <c r="C351" t="s">
+      <c r="D351" t="s">
         <v>902</v>
-      </c>
-      <c r="D351" t="s">
-        <v>903</v>
       </c>
       <c r="E351" t="n">
         <v>3.3</v>
@@ -11207,16 +11204,16 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B352" t="s">
+        <v>903</v>
+      </c>
+      <c r="C352" t="s">
         <v>904</v>
       </c>
-      <c r="C352" t="s">
+      <c r="D352" t="s">
         <v>905</v>
-      </c>
-      <c r="D352" t="s">
-        <v>906</v>
       </c>
       <c r="E352" t="n">
         <v>3.6</v>
@@ -11230,16 +11227,16 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B353" t="s">
+        <v>906</v>
+      </c>
+      <c r="C353" t="s">
         <v>907</v>
       </c>
-      <c r="C353" t="s">
+      <c r="D353" t="s">
         <v>908</v>
-      </c>
-      <c r="D353" t="s">
-        <v>909</v>
       </c>
       <c r="E353" t="n">
         <v>1</v>
@@ -11253,16 +11250,16 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B354" t="s">
+        <v>909</v>
+      </c>
+      <c r="C354" t="s">
         <v>910</v>
       </c>
-      <c r="C354" t="s">
+      <c r="D354" t="s">
         <v>911</v>
-      </c>
-      <c r="D354" t="s">
-        <v>912</v>
       </c>
       <c r="E354" t="n">
         <v>20.3</v>
@@ -11276,16 +11273,16 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B355" t="s">
+        <v>912</v>
+      </c>
+      <c r="C355" t="s">
+        <v>253</v>
+      </c>
+      <c r="D355" t="s">
         <v>913</v>
-      </c>
-      <c r="C355" t="s">
-        <v>254</v>
-      </c>
-      <c r="D355" t="s">
-        <v>914</v>
       </c>
       <c r="E355" t="n">
         <v>12.09</v>
@@ -11299,16 +11296,16 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B356" t="s">
+        <v>914</v>
+      </c>
+      <c r="C356" t="s">
         <v>915</v>
       </c>
-      <c r="C356" t="s">
-        <v>916</v>
-      </c>
       <c r="D356" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E356" t="n">
         <v>3.4</v>
@@ -11322,16 +11319,16 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B357" t="s">
+        <v>916</v>
+      </c>
+      <c r="C357" t="s">
         <v>917</v>
       </c>
-      <c r="C357" t="s">
-        <v>918</v>
-      </c>
       <c r="D357" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E357" t="n">
         <v>31.6</v>
@@ -11345,16 +11342,16 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B358" t="s">
+        <v>921</v>
+      </c>
+      <c r="C358" t="s">
         <v>922</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>923</v>
-      </c>
-      <c r="D358" t="s">
-        <v>924</v>
       </c>
       <c r="E358" t="n">
         <v>1.52</v>
@@ -11368,16 +11365,16 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B359" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C359" t="s">
+        <v>256</v>
+      </c>
+      <c r="D359" t="s">
         <v>257</v>
-      </c>
-      <c r="D359" t="s">
-        <v>258</v>
       </c>
       <c r="E359" t="n">
         <v>22.2</v>
@@ -11391,16 +11388,16 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B360" t="s">
+        <v>880</v>
+      </c>
+      <c r="C360" t="s">
         <v>881</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" t="s">
         <v>882</v>
-      </c>
-      <c r="D360" t="s">
-        <v>883</v>
       </c>
       <c r="E360" t="n">
         <v>21.8</v>
@@ -11414,16 +11411,16 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B361" t="s">
+        <v>883</v>
+      </c>
+      <c r="C361" t="s">
         <v>884</v>
       </c>
-      <c r="C361" t="s">
+      <c r="D361" t="s">
         <v>885</v>
-      </c>
-      <c r="D361" t="s">
-        <v>886</v>
       </c>
       <c r="E361" t="n">
         <v>9.3</v>
@@ -11437,16 +11434,16 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B362" t="s">
+        <v>886</v>
+      </c>
+      <c r="C362" t="s">
         <v>887</v>
       </c>
-      <c r="C362" t="s">
+      <c r="D362" t="s">
         <v>888</v>
-      </c>
-      <c r="D362" t="s">
-        <v>889</v>
       </c>
       <c r="E362" t="n">
         <v>13.7</v>
@@ -11460,16 +11457,16 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B363" t="s">
+        <v>889</v>
+      </c>
+      <c r="C363" t="s">
         <v>890</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
         <v>891</v>
-      </c>
-      <c r="D363" t="s">
-        <v>892</v>
       </c>
       <c r="E363" t="n">
         <v>10.8</v>
@@ -11483,16 +11480,16 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B364" t="s">
+        <v>892</v>
+      </c>
+      <c r="C364" t="s">
         <v>893</v>
       </c>
-      <c r="C364" t="s">
+      <c r="D364" t="s">
         <v>894</v>
-      </c>
-      <c r="D364" t="s">
-        <v>895</v>
       </c>
       <c r="E364" t="n">
         <v>18.5</v>
@@ -11506,16 +11503,16 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B365" t="s">
+        <v>918</v>
+      </c>
+      <c r="C365" t="s">
         <v>919</v>
       </c>
-      <c r="C365" t="s">
+      <c r="D365" t="s">
         <v>920</v>
-      </c>
-      <c r="D365" t="s">
-        <v>921</v>
       </c>
       <c r="E365" t="n">
         <v>3.7</v>
